--- a/predimmensionnement.xlsx
+++ b/predimmensionnement.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DamienCM\Desktop\S8\constru\projet_constru_4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\INSA\MIQ4\S8\Construction\projet_constru_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FE68E7-D302-4C70-B4DF-477B517C9953}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34DB8DA-E093-40A7-98D1-68D1465F0278}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Convoyeur" sheetId="1" r:id="rId1"/>
+    <sheet name="Translation - Temps de cycle" sheetId="2" r:id="rId2"/>
+    <sheet name="Translation - Puissance" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="150">
   <si>
     <t>Donnees d'entrée liees à la chute 
 des disques de frein</t>
@@ -309,13 +313,187 @@
   </si>
   <si>
     <t>Reference d'un verin convenable (Festo)</t>
+  </si>
+  <si>
+    <t>Valeur</t>
+  </si>
+  <si>
+    <t>Unités</t>
+  </si>
+  <si>
+    <t>En-tête de colonne</t>
+  </si>
+  <si>
+    <t>Temps de palettisation maximal</t>
+  </si>
+  <si>
+    <t>Vitesse horizontale maximale</t>
+  </si>
+  <si>
+    <t>Données du sujet</t>
+  </si>
+  <si>
+    <t>Nombre de disques à paletiser</t>
+  </si>
+  <si>
+    <t>sans unités</t>
+  </si>
+  <si>
+    <t>Accélération horizontale</t>
+  </si>
+  <si>
+    <t>Calcul</t>
+  </si>
+  <si>
+    <t>Vitesse verticale maximale</t>
+  </si>
+  <si>
+    <t>Vérification</t>
+  </si>
+  <si>
+    <t>Distance de descente moyenne</t>
+  </si>
+  <si>
+    <t>Accélération verticale</t>
+  </si>
+  <si>
+    <t>Sortie</t>
+  </si>
+  <si>
+    <t>Distance de montée</t>
+  </si>
+  <si>
+    <t>Sous partie</t>
+  </si>
+  <si>
+    <t>Distance de translation moyenne</t>
+  </si>
+  <si>
+    <t>Démultiplication horizontale</t>
+  </si>
+  <si>
+    <t>m/tr</t>
+  </si>
+  <si>
+    <t>Informations des datasheets et de l'architecture</t>
+  </si>
+  <si>
+    <t>Vitesse de rotation moteur</t>
+  </si>
+  <si>
+    <t>tr/min</t>
+  </si>
+  <si>
+    <t>Durée préhension</t>
+  </si>
+  <si>
+    <t>Durée dépose</t>
+  </si>
+  <si>
+    <t>VERTICAL - MONTEE</t>
+  </si>
+  <si>
+    <t>Temps néccessaire pour atteindre Vmax</t>
+  </si>
+  <si>
+    <t>Durée de descente</t>
+  </si>
+  <si>
+    <t>Position à Vmax</t>
+  </si>
+  <si>
+    <t>Durée de montée</t>
+  </si>
+  <si>
+    <t>Type de profil de vitesse</t>
+  </si>
+  <si>
+    <t>Durée de translation</t>
+  </si>
+  <si>
+    <t>Temps de montée</t>
+  </si>
+  <si>
+    <t>Durée de mouvement totale</t>
+  </si>
+  <si>
+    <t>VERTICAL - DESCENTE</t>
+  </si>
+  <si>
+    <t>Temps de cycle maximal</t>
+  </si>
+  <si>
+    <t>Temps de descente</t>
+  </si>
+  <si>
+    <t>Durée de cycle théorique (trajectoire moyenne)</t>
+  </si>
+  <si>
+    <t>HORIZONTAL - TRANSLATION</t>
+  </si>
+  <si>
+    <t>Vérification durée cycle</t>
+  </si>
+  <si>
+    <t>Temps nécessaire pour atteindre  Vmax</t>
+  </si>
+  <si>
+    <t>Temps de translation</t>
+  </si>
+  <si>
+    <t>Masse d'un disque</t>
+  </si>
+  <si>
+    <t>Puissance vérin avec sécurité</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Masse d'un préhenseur</t>
+  </si>
+  <si>
+    <t>Puissance moteur avec sécurité</t>
+  </si>
+  <si>
+    <t>Nombre de préhenseurs</t>
+  </si>
+  <si>
+    <t>Masse du vérin + moteur</t>
+  </si>
+  <si>
+    <t>Puissance du vérin choisi</t>
+  </si>
+  <si>
+    <t>Masse du chariot &lt;</t>
+  </si>
+  <si>
+    <t>Puissance du moteur choisi</t>
+  </si>
+  <si>
+    <t>Masse à déplacer</t>
+  </si>
+  <si>
+    <t>Vérification du vérin</t>
+  </si>
+  <si>
+    <t>Vérification du moteur</t>
+  </si>
+  <si>
+    <t>Coefficient de sécurité</t>
+  </si>
+  <si>
+    <t>Puissance</t>
+  </si>
+  <si>
+    <t>Force</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -325,22 +503,26 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Liberation Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Liberation Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Liberation Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFCC0000"/>
       <name val="Liberation Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -360,49 +542,58 @@
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Liberation Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
       <color rgb="FF808080"/>
       <name val="Liberation Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF006600"/>
       <name val="Liberation Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="24"/>
       <color rgb="FF000000"/>
       <name val="Liberation Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Liberation Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Liberation Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000EE"/>
       <name val="Liberation Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF996600"/>
       <name val="Liberation Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Liberation Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -411,27 +602,84 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Liberation Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Liberation Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Liberation Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Liberation Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -504,8 +752,39 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -679,8 +958,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -703,8 +1021,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -726,6 +1049,76 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" xfId="3"/>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="1" xfId="26" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="17" xfId="26" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" xfId="26"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="16" xfId="24"/>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="15" xfId="23"/>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" xfId="25"/>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" xfId="21" applyFill="1"/>
+    <xf numFmtId="2" fontId="5" fillId="6" borderId="1" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="21" fillId="14" borderId="15" xfId="23" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="16" xfId="24" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="10" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" xfId="22" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="2" xfId="3" applyFont="1"/>
+    <xf numFmtId="2" fontId="25" fillId="10" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="2" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="2" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -751,61 +1144,14 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="21" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="2"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" xfId="3"/>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="22">
+  <cellStyles count="27">
     <cellStyle name="Accent" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Accent 1" xfId="5" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Accent 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Accent 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="Accent2" xfId="26" builtinId="33"/>
     <cellStyle name="Bad" xfId="8" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Calcul" xfId="2" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Entrée" xfId="1" builtinId="20" customBuiltin="1"/>
@@ -818,11 +1164,14 @@
     <cellStyle name="Hyperlink" xfId="15" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="Lien hypertexte" xfId="21" builtinId="8"/>
     <cellStyle name="Neutral" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Neutre" xfId="22" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Note" xfId="3" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Result" xfId="17" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Sortie" xfId="23" builtinId="21"/>
     <cellStyle name="Status" xfId="18" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
     <cellStyle name="Text" xfId="19" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Vérification" xfId="24" builtinId="23"/>
     <cellStyle name="Warning" xfId="20" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
   </cellStyles>
   <dxfs count="2">
@@ -949,6 +1298,42 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Translation - Temps de cycle"/>
+      <sheetName val="Translation - Puissance"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="F3">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>0.255</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>0.1</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>0.4538722287164087</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1250,61 +1635,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D49" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="P68" sqref="P68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="19.25" customWidth="1"/>
-    <col min="3" max="3" width="16.25" customWidth="1"/>
-    <col min="4" max="4" width="10.625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="10.625" customWidth="1"/>
-    <col min="6" max="6" width="17.375" customWidth="1"/>
-    <col min="7" max="8" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="19.19921875" customWidth="1"/>
+    <col min="3" max="3" width="16.19921875" customWidth="1"/>
+    <col min="4" max="4" width="10.59765625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="10.59765625" customWidth="1"/>
+    <col min="6" max="6" width="17.3984375" customWidth="1"/>
+    <col min="7" max="8" width="10.59765625" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
     <col min="12" max="12" width="11" style="7"/>
-    <col min="16" max="16" width="42.375" customWidth="1"/>
+    <col min="16" max="16" width="42.3984375" customWidth="1"/>
     <col min="17" max="17" width="11" style="7"/>
-    <col min="20" max="20" width="11" style="31"/>
+    <col min="20" max="20" width="11" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="23.25" customHeight="1">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
       <c r="D1" s="6"/>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
       <c r="L1" s="6"/>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-    </row>
-    <row r="2" spans="1:19" ht="23.25" customHeight="1">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+    </row>
+    <row r="2" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
       <c r="D2" s="6"/>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="1:19" ht="14.25" customHeight="1">
+    <row r="3" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1317,7 +1702,7 @@
       <c r="D3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:19" ht="14.25" customHeight="1">
+    <row r="4" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1330,7 +1715,7 @@
       <c r="D4" s="6"/>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:19" ht="14.25" customHeight="1">
+    <row r="5" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>43</v>
       </c>
@@ -1343,7 +1728,7 @@
       <c r="D5" s="6"/>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:19" ht="15">
+    <row r="6" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -1356,7 +1741,7 @@
       <c r="D6" s="6"/>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:19" ht="15">
+    <row r="7" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1369,7 +1754,7 @@
       <c r="D7" s="6"/>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:19" ht="15">
+    <row r="8" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -1382,7 +1767,7 @@
       <c r="D8" s="6"/>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="1:19" ht="15">
+    <row r="9" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1396,7 +1781,7 @@
       <c r="D9" s="6"/>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="1:19" ht="15">
+    <row r="10" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
@@ -1410,7 +1795,7 @@
       <c r="D10" s="6"/>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" spans="1:19" ht="15">
+    <row r="11" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4">
         <f>B10*3.6</f>
@@ -1422,7 +1807,7 @@
       <c r="D11" s="6"/>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="1:19" ht="15">
+    <row r="12" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
@@ -1436,7 +1821,7 @@
       <c r="D12" s="6"/>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="1:19" ht="15">
+    <row r="13" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -1449,7 +1834,7 @@
       <c r="D13" s="6"/>
       <c r="L13" s="6"/>
     </row>
-    <row r="14" spans="1:19" ht="15">
+    <row r="14" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>21</v>
       </c>
@@ -1463,7 +1848,7 @@
       <c r="D14" s="6"/>
       <c r="L14" s="6"/>
     </row>
-    <row r="15" spans="1:19" ht="15">
+    <row r="15" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>23</v>
       </c>
@@ -1477,54 +1862,54 @@
       <c r="D15" s="6"/>
       <c r="L15" s="6"/>
     </row>
-    <row r="16" spans="1:19" ht="15">
+    <row r="16" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
       <c r="D16" s="6"/>
       <c r="L16" s="6"/>
     </row>
-    <row r="17" spans="4:20">
+    <row r="17" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D17" s="6"/>
       <c r="L17" s="6"/>
     </row>
-    <row r="18" spans="4:20">
+    <row r="18" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D18" s="6"/>
       <c r="L18" s="6"/>
     </row>
-    <row r="19" spans="4:20">
+    <row r="19" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D19" s="6"/>
       <c r="L19" s="6"/>
     </row>
-    <row r="20" spans="4:20">
+    <row r="20" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D20" s="6"/>
       <c r="L20" s="6"/>
     </row>
-    <row r="21" spans="4:20">
+    <row r="21" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D21" s="6"/>
       <c r="L21" s="6"/>
     </row>
-    <row r="22" spans="4:20">
+    <row r="22" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D22" s="6"/>
       <c r="L22" s="6"/>
     </row>
-    <row r="23" spans="4:20">
+    <row r="23" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D23" s="6"/>
       <c r="L23" s="6"/>
-      <c r="R23" s="38"/>
-      <c r="S23" s="38"/>
-      <c r="T23" s="39"/>
-    </row>
-    <row r="24" spans="4:20">
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="24"/>
+    </row>
+    <row r="24" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D24" s="6"/>
       <c r="L24" s="6"/>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
-      <c r="R24" s="39"/>
-      <c r="S24" s="39"/>
-      <c r="T24" s="39"/>
-    </row>
-    <row r="25" spans="4:20">
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="24"/>
+    </row>
+    <row r="25" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D25" s="6"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
@@ -1534,107 +1919,107 @@
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="6"/>
-      <c r="M25" s="24" t="s">
+      <c r="M25" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="40"/>
-      <c r="S25" s="40"/>
-      <c r="T25" s="39"/>
-    </row>
-    <row r="26" spans="4:20">
+      <c r="N25" s="55"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="55"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="24"/>
+    </row>
+    <row r="26" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D26" s="6"/>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="68"/>
       <c r="L26" s="6"/>
-      <c r="R26" s="39"/>
-      <c r="S26" s="39"/>
-      <c r="T26" s="39"/>
-    </row>
-    <row r="27" spans="4:20">
+      <c r="R26" s="24"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="24"/>
+    </row>
+    <row r="27" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D27" s="6"/>
       <c r="L27" s="6"/>
-      <c r="R27" s="38"/>
-      <c r="S27" s="38"/>
-      <c r="T27" s="39"/>
-    </row>
-    <row r="28" spans="4:20">
+      <c r="R27" s="23"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="24"/>
+    </row>
+    <row r="28" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D28" s="6"/>
-      <c r="F28" s="21" t="s">
+      <c r="F28" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="69"/>
       <c r="L28" s="6"/>
-      <c r="M28" s="25" t="s">
+      <c r="M28" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="41"/>
-      <c r="S28" s="38"/>
-      <c r="T28" s="39"/>
-    </row>
-    <row r="29" spans="4:20">
+      <c r="N28" s="56"/>
+      <c r="O28" s="56"/>
+      <c r="P28" s="56"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="24"/>
+    </row>
+    <row r="29" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D29" s="6"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="69"/>
       <c r="L29" s="6"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="36"/>
-      <c r="R29" s="41"/>
-      <c r="S29" s="38"/>
-      <c r="T29" s="39"/>
-    </row>
-    <row r="30" spans="4:20">
+      <c r="M29" s="56"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="56"/>
+      <c r="P29" s="56"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="24"/>
+    </row>
+    <row r="30" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D30" s="6"/>
-      <c r="R30" s="38"/>
-      <c r="S30" s="38"/>
-      <c r="T30" s="39"/>
-    </row>
-    <row r="31" spans="4:20">
-      <c r="F31" s="22" t="s">
+      <c r="R30" s="23"/>
+      <c r="S30" s="23"/>
+      <c r="T30" s="24"/>
+    </row>
+    <row r="31" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="F31" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="R31" s="38"/>
-      <c r="S31" s="38"/>
-      <c r="T31" s="39"/>
-    </row>
-    <row r="32" spans="4:20">
-      <c r="R32" s="38"/>
-      <c r="S32" s="38"/>
-      <c r="T32" s="39"/>
-    </row>
-    <row r="33" spans="5:20">
-      <c r="R33" s="38"/>
-      <c r="S33" s="38"/>
-      <c r="T33" s="39"/>
-    </row>
-    <row r="34" spans="5:20">
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="61"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="24"/>
+    </row>
+    <row r="32" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="R32" s="23"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="24"/>
+    </row>
+    <row r="33" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="R33" s="23"/>
+      <c r="S33" s="23"/>
+      <c r="T33" s="24"/>
+    </row>
+    <row r="34" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E34" s="8" t="s">
         <v>28</v>
       </c>
@@ -1644,12 +2029,12 @@
       <c r="G34" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H34" s="22" t="s">
+      <c r="H34" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="61"/>
       <c r="M34" s="8" t="s">
         <v>28</v>
       </c>
@@ -1659,15 +2044,15 @@
       <c r="O34" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="P34" s="28" t="s">
+      <c r="P34" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="Q34" s="37"/>
-      <c r="R34" s="42"/>
-      <c r="S34" s="42"/>
-      <c r="T34" s="39"/>
-    </row>
-    <row r="35" spans="5:20" ht="15">
+      <c r="Q34" s="22"/>
+      <c r="R34" s="27"/>
+      <c r="S34" s="27"/>
+      <c r="T34" s="24"/>
+    </row>
+    <row r="35" spans="5:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E35" s="9" t="s">
         <v>12</v>
       </c>
@@ -1678,31 +2063,31 @@
       <c r="G35" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H35" s="16" t="s">
+      <c r="H35" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="M35" s="47" t="s">
+      <c r="I35" s="65"/>
+      <c r="J35" s="65"/>
+      <c r="K35" s="65"/>
+      <c r="M35" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="N35" s="47">
+      <c r="N35" s="32">
         <f>B4</f>
         <v>3.6</v>
       </c>
-      <c r="O35" s="47" t="s">
+      <c r="O35" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="P35" s="48" t="s">
+      <c r="P35" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="Q35" s="29"/>
-      <c r="R35" s="42"/>
-      <c r="S35" s="42"/>
-      <c r="T35" s="39"/>
-    </row>
-    <row r="36" spans="5:20" ht="15">
+      <c r="Q35" s="17"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="27"/>
+      <c r="T35" s="24"/>
+    </row>
+    <row r="36" spans="5:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E36" s="10" t="s">
         <v>9</v>
       </c>
@@ -1713,29 +2098,29 @@
       <c r="G36" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H36" s="14" t="s">
+      <c r="H36" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="M36" s="47" t="s">
+      <c r="I36" s="63"/>
+      <c r="J36" s="63"/>
+      <c r="K36" s="63"/>
+      <c r="M36" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="N36" s="47">
+      <c r="N36" s="32">
         <f>F36</f>
         <v>9.81</v>
       </c>
-      <c r="O36" s="47" t="s">
+      <c r="O36" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="P36" s="48"/>
-      <c r="Q36" s="30"/>
-      <c r="R36" s="42"/>
-      <c r="S36" s="42"/>
-      <c r="T36" s="39"/>
-    </row>
-    <row r="37" spans="5:20" ht="15">
+      <c r="P36" s="33"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="27"/>
+      <c r="S36" s="27"/>
+      <c r="T36" s="24"/>
+    </row>
+    <row r="37" spans="5:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E37" s="10" t="s">
         <v>32</v>
       </c>
@@ -1746,28 +2131,28 @@
       <c r="G37" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H37" s="14" t="s">
+      <c r="H37" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="M37" s="47" t="s">
+      <c r="I37" s="63"/>
+      <c r="J37" s="63"/>
+      <c r="K37" s="63"/>
+      <c r="M37" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="N37" s="47">
+      <c r="N37" s="32">
         <v>2.5</v>
       </c>
-      <c r="O37" s="47"/>
-      <c r="P37" s="48" t="s">
+      <c r="O37" s="32"/>
+      <c r="P37" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="Q37" s="30"/>
-      <c r="R37" s="42"/>
-      <c r="S37" s="42"/>
-      <c r="T37" s="39"/>
-    </row>
-    <row r="38" spans="5:20" ht="15">
+      <c r="Q37" s="18"/>
+      <c r="R37" s="27"/>
+      <c r="S37" s="27"/>
+      <c r="T37" s="24"/>
+    </row>
+    <row r="38" spans="5:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E38" s="10" t="s">
         <v>33</v>
       </c>
@@ -1775,31 +2160,31 @@
       <c r="G38" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H38" s="14" t="s">
+      <c r="H38" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="M38" s="47" t="s">
+      <c r="I38" s="63"/>
+      <c r="J38" s="63"/>
+      <c r="K38" s="63"/>
+      <c r="M38" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="N38" s="47">
+      <c r="N38" s="32">
         <f>2*B5</f>
         <v>360</v>
       </c>
-      <c r="O38" s="47" t="s">
+      <c r="O38" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="P38" s="48" t="s">
+      <c r="P38" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="Q38" s="30"/>
-      <c r="R38" s="42"/>
-      <c r="S38" s="42"/>
-      <c r="T38" s="39"/>
-    </row>
-    <row r="39" spans="5:20" ht="15">
+      <c r="Q38" s="18"/>
+      <c r="R38" s="27"/>
+      <c r="S38" s="27"/>
+      <c r="T38" s="24"/>
+    </row>
+    <row r="39" spans="5:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E39" s="10" t="s">
         <v>34</v>
       </c>
@@ -1807,30 +2192,30 @@
       <c r="G39" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H39" s="14" t="s">
+      <c r="H39" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="M39" s="47" t="s">
+      <c r="I39" s="63"/>
+      <c r="J39" s="63"/>
+      <c r="K39" s="63"/>
+      <c r="M39" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="N39" s="47">
+      <c r="N39" s="32">
         <v>3</v>
       </c>
-      <c r="O39" s="47" t="s">
+      <c r="O39" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="P39" s="48" t="s">
+      <c r="P39" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="Q39" s="30"/>
-      <c r="R39" s="42"/>
-      <c r="S39" s="42"/>
-      <c r="T39" s="39"/>
-    </row>
-    <row r="40" spans="5:20" ht="15">
+      <c r="Q39" s="18"/>
+      <c r="R39" s="27"/>
+      <c r="S39" s="27"/>
+      <c r="T39" s="24"/>
+    </row>
+    <row r="40" spans="5:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E40" s="10" t="s">
         <v>37</v>
       </c>
@@ -1838,479 +2223,479 @@
       <c r="G40" s="11">
         <v>1</v>
       </c>
-      <c r="H40" s="14" t="s">
+      <c r="H40" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-      <c r="M40" s="47" t="s">
+      <c r="I40" s="63"/>
+      <c r="J40" s="63"/>
+      <c r="K40" s="63"/>
+      <c r="M40" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="N40" s="47">
+      <c r="N40" s="32">
         <v>30</v>
       </c>
-      <c r="O40" s="47" t="s">
+      <c r="O40" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="P40" s="48" t="s">
+      <c r="P40" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="Q40" s="30"/>
-      <c r="R40" s="42"/>
-      <c r="S40" s="42"/>
-      <c r="T40" s="39"/>
-    </row>
-    <row r="41" spans="5:20" ht="15">
+      <c r="Q40" s="18"/>
+      <c r="R40" s="27"/>
+      <c r="S40" s="27"/>
+      <c r="T40" s="24"/>
+    </row>
+    <row r="41" spans="5:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
-      <c r="M41" s="47" t="s">
+      <c r="H41" s="62"/>
+      <c r="I41" s="63"/>
+      <c r="J41" s="63"/>
+      <c r="K41" s="63"/>
+      <c r="M41" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="N41" s="47">
+      <c r="N41" s="32">
         <v>300</v>
       </c>
-      <c r="O41" s="47" t="s">
+      <c r="O41" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="P41" s="48" t="s">
+      <c r="P41" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="Q41" s="30"/>
-      <c r="R41" s="42"/>
-      <c r="S41" s="42"/>
-      <c r="T41" s="39"/>
-    </row>
-    <row r="42" spans="5:20" ht="15">
+      <c r="Q41" s="18"/>
+      <c r="R41" s="27"/>
+      <c r="S41" s="27"/>
+      <c r="T41" s="24"/>
+    </row>
+    <row r="42" spans="5:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
-      <c r="M42" s="47" t="s">
+      <c r="H42" s="62"/>
+      <c r="I42" s="63"/>
+      <c r="J42" s="63"/>
+      <c r="K42" s="63"/>
+      <c r="M42" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="N42" s="47">
+      <c r="N42" s="32">
         <v>0.1</v>
       </c>
-      <c r="O42" s="47" t="s">
+      <c r="O42" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="P42" s="48" t="s">
+      <c r="P42" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="Q42" s="30"/>
-      <c r="R42" s="42"/>
-      <c r="S42" s="42"/>
-      <c r="T42" s="39"/>
-    </row>
-    <row r="43" spans="5:20" ht="15">
+      <c r="Q42" s="18"/>
+      <c r="R42" s="27"/>
+      <c r="S42" s="27"/>
+      <c r="T42" s="24"/>
+    </row>
+    <row r="43" spans="5:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="15"/>
-      <c r="M43" s="45" t="s">
+      <c r="H43" s="62"/>
+      <c r="I43" s="63"/>
+      <c r="J43" s="63"/>
+      <c r="K43" s="63"/>
+      <c r="M43" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="N43" s="45">
+      <c r="N43" s="30">
         <f>N35*B10/N42</f>
         <v>57.494152746170641</v>
       </c>
-      <c r="O43" s="45" t="s">
+      <c r="O43" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="P43" s="46" t="s">
+      <c r="P43" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="Q43" s="30"/>
-      <c r="R43" s="42"/>
-      <c r="S43" s="42"/>
-      <c r="T43" s="39"/>
-    </row>
-    <row r="44" spans="5:20" ht="15">
+      <c r="Q43" s="18"/>
+      <c r="R43" s="27"/>
+      <c r="S43" s="27"/>
+      <c r="T43" s="24"/>
+    </row>
+    <row r="44" spans="5:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="15"/>
-      <c r="M44" s="45" t="s">
+      <c r="H44" s="62"/>
+      <c r="I44" s="63"/>
+      <c r="J44" s="63"/>
+      <c r="K44" s="63"/>
+      <c r="M44" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="N44" s="45">
+      <c r="N44" s="30">
         <f>N43*N38/4</f>
         <v>5174.4737471553581</v>
       </c>
-      <c r="O44" s="45" t="s">
+      <c r="O44" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="P44" s="46" t="s">
+      <c r="P44" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="Q44" s="30"/>
-      <c r="R44" s="42"/>
-      <c r="S44" s="42"/>
-      <c r="T44" s="39"/>
-    </row>
-    <row r="45" spans="5:20" ht="15">
+      <c r="Q44" s="18"/>
+      <c r="R44" s="27"/>
+      <c r="S44" s="27"/>
+      <c r="T44" s="24"/>
+    </row>
+    <row r="45" spans="5:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="15"/>
-      <c r="M45" s="45" t="s">
+      <c r="H45" s="62"/>
+      <c r="I45" s="63"/>
+      <c r="J45" s="63"/>
+      <c r="K45" s="63"/>
+      <c r="M45" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="N45" s="45">
+      <c r="N45" s="30">
         <f>(N40*N39^3)/12</f>
         <v>67.5</v>
       </c>
-      <c r="O45" s="45" t="s">
+      <c r="O45" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="P45" s="46" t="s">
+      <c r="P45" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="Q45" s="30"/>
-      <c r="R45" s="42"/>
-      <c r="S45" s="42"/>
-      <c r="T45" s="39"/>
-    </row>
-    <row r="46" spans="5:20" ht="15">
+      <c r="Q45" s="18"/>
+      <c r="R45" s="27"/>
+      <c r="S45" s="27"/>
+      <c r="T45" s="24"/>
+    </row>
+    <row r="46" spans="5:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="15"/>
-      <c r="M46" s="45" t="s">
+      <c r="H46" s="62"/>
+      <c r="I46" s="63"/>
+      <c r="J46" s="63"/>
+      <c r="K46" s="63"/>
+      <c r="M46" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="N46" s="45">
+      <c r="N46" s="30">
         <f>N44/N45*N39/2</f>
         <v>114.98830549234128</v>
       </c>
-      <c r="O46" s="45" t="s">
+      <c r="O46" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="P46" s="46" t="s">
+      <c r="P46" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="Q46" s="30"/>
-      <c r="R46" s="42"/>
-      <c r="S46" s="42"/>
-      <c r="T46" s="39"/>
-    </row>
-    <row r="47" spans="5:20" ht="15">
+      <c r="Q46" s="18"/>
+      <c r="R46" s="27"/>
+      <c r="S46" s="27"/>
+      <c r="T46" s="24"/>
+    </row>
+    <row r="47" spans="5:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="15"/>
-      <c r="M47" s="45" t="s">
+      <c r="H47" s="62"/>
+      <c r="I47" s="63"/>
+      <c r="J47" s="63"/>
+      <c r="K47" s="63"/>
+      <c r="M47" s="30" t="s">
         <v>68</v>
       </c>
       <c r="N47" t="str">
         <f>IF(N46*N37&lt;N41,"Oui","Non")</f>
         <v>Oui</v>
       </c>
-      <c r="O47" s="45"/>
-      <c r="P47" s="46" t="s">
+      <c r="O47" s="30"/>
+      <c r="P47" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="Q47" s="30"/>
-      <c r="R47" s="42"/>
-      <c r="S47" s="42"/>
-      <c r="T47" s="39"/>
-    </row>
-    <row r="48" spans="5:20">
+      <c r="Q47" s="18"/>
+      <c r="R47" s="27"/>
+      <c r="S47" s="27"/>
+      <c r="T47" s="24"/>
+    </row>
+    <row r="48" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="15"/>
-      <c r="M48" s="26"/>
-      <c r="N48" s="26"/>
-      <c r="O48" s="26"/>
-      <c r="P48" s="27"/>
-      <c r="Q48" s="29"/>
-      <c r="R48" s="42"/>
-      <c r="S48" s="42"/>
-      <c r="T48" s="39"/>
-    </row>
-    <row r="49" spans="5:20">
+      <c r="H48" s="62"/>
+      <c r="I48" s="63"/>
+      <c r="J48" s="63"/>
+      <c r="K48" s="63"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="15"/>
+      <c r="Q48" s="17"/>
+      <c r="R48" s="27"/>
+      <c r="S48" s="27"/>
+      <c r="T48" s="24"/>
+    </row>
+    <row r="49" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="15"/>
-      <c r="R49" s="38"/>
-      <c r="S49" s="38"/>
-      <c r="T49" s="39"/>
-    </row>
-    <row r="50" spans="5:20">
+      <c r="H49" s="62"/>
+      <c r="I49" s="63"/>
+      <c r="J49" s="63"/>
+      <c r="K49" s="63"/>
+      <c r="R49" s="23"/>
+      <c r="S49" s="23"/>
+      <c r="T49" s="24"/>
+    </row>
+    <row r="50" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="15"/>
-      <c r="K50" s="15"/>
-      <c r="M50" s="33" t="s">
+      <c r="H50" s="62"/>
+      <c r="I50" s="63"/>
+      <c r="J50" s="63"/>
+      <c r="K50" s="63"/>
+      <c r="M50" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="N50" s="34"/>
-      <c r="O50" s="34"/>
-      <c r="P50" s="35"/>
-      <c r="Q50" s="37"/>
-      <c r="R50" s="42"/>
-      <c r="S50" s="42"/>
-      <c r="T50" s="39"/>
-    </row>
-    <row r="51" spans="5:20" ht="15">
-      <c r="M51" s="47" t="s">
+      <c r="N50" s="58"/>
+      <c r="O50" s="58"/>
+      <c r="P50" s="59"/>
+      <c r="Q50" s="22"/>
+      <c r="R50" s="27"/>
+      <c r="S50" s="27"/>
+      <c r="T50" s="24"/>
+    </row>
+    <row r="51" spans="5:20" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="M51" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="N51" s="47">
+      <c r="N51" s="32">
         <v>5</v>
       </c>
-      <c r="O51" s="47" t="s">
+      <c r="O51" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="P51" s="47" t="s">
+      <c r="P51" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="R51" s="38"/>
-      <c r="S51" s="38"/>
-      <c r="T51" s="39"/>
-    </row>
-    <row r="52" spans="5:20" ht="15">
-      <c r="M52" s="47" t="s">
+      <c r="R51" s="23"/>
+      <c r="S51" s="23"/>
+      <c r="T51" s="24"/>
+    </row>
+    <row r="52" spans="5:20" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="M52" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="N52" s="47">
+      <c r="N52" s="32">
         <f>B4</f>
         <v>3.6</v>
       </c>
-      <c r="O52" s="47" t="s">
+      <c r="O52" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="P52" s="47" t="s">
+      <c r="P52" s="32" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="5:20" ht="15">
-      <c r="M53" s="47" t="s">
+    <row r="53" spans="5:20" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="M53" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="N53" s="47">
+      <c r="N53" s="32">
         <v>9.81</v>
       </c>
-      <c r="O53" s="47" t="s">
+      <c r="O53" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="P53" s="47" t="s">
+      <c r="P53" s="32" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="5:20" ht="15">
-      <c r="M54" s="47" t="s">
+    <row r="54" spans="5:20" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="M54" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="N54" s="47">
+      <c r="N54" s="32">
         <f>ATAN(B6)</f>
         <v>4.9958395721942765E-2</v>
       </c>
-      <c r="O54" s="47" t="s">
+      <c r="O54" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="P54" s="47" t="s">
+      <c r="P54" s="32" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="5:20" ht="15">
-      <c r="M55" s="47" t="s">
+    <row r="55" spans="5:20" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="M55" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="N55" s="47">
+      <c r="N55" s="32">
         <v>10</v>
       </c>
-      <c r="O55" s="47"/>
-      <c r="P55" s="47" t="s">
+      <c r="O55" s="32"/>
+      <c r="P55" s="32" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="5:20" ht="15">
-      <c r="M56" s="47" t="s">
+    <row r="56" spans="5:20" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="M56" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="N56" s="47">
+      <c r="N56" s="32">
         <v>2.5</v>
       </c>
-      <c r="O56" s="47"/>
-      <c r="P56" s="47" t="s">
+      <c r="O56" s="32"/>
+      <c r="P56" s="32" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="5:20" ht="15">
-      <c r="M57" s="47" t="s">
+    <row r="57" spans="5:20" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="M57" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="N57" s="47">
+      <c r="N57" s="32">
         <v>1</v>
       </c>
-      <c r="O57" s="47" t="s">
+      <c r="O57" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="P57" s="47" t="s">
+      <c r="P57" s="32" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="58" spans="5:20" ht="15">
-      <c r="M58" s="47" t="s">
+    <row r="58" spans="5:20" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="M58" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="N58" s="47">
+      <c r="N58" s="32">
         <v>0.1</v>
       </c>
-      <c r="O58" s="47" t="s">
+      <c r="O58" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="P58" s="47" t="s">
+      <c r="P58" s="32" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="5:20" ht="15">
-      <c r="M59" s="47" t="s">
+    <row r="59" spans="5:20" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="M59" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="N59" s="47">
+      <c r="N59" s="32">
         <v>0.2</v>
       </c>
-      <c r="O59" s="47"/>
-      <c r="P59" s="47" t="s">
+      <c r="O59" s="32"/>
+      <c r="P59" s="32" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="60" spans="5:20" ht="15">
-      <c r="M60" s="45" t="s">
+    <row r="60" spans="5:20" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="M60" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="N60" s="45">
+      <c r="N60" s="30">
         <f>(N52*N53*SIN(N54)*N55)</f>
         <v>17.635968799904983</v>
       </c>
-      <c r="O60" s="45" t="s">
+      <c r="O60" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="P60" s="45" t="s">
+      <c r="P60" s="30" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="61" spans="5:20" ht="15">
-      <c r="M61" s="45" t="s">
+    <row r="61" spans="5:20" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="M61" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="N61" s="45">
+      <c r="N61" s="30">
         <f>N57/N58</f>
         <v>10</v>
       </c>
-      <c r="O61" s="45" t="s">
+      <c r="O61" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="P61" s="45" t="s">
+      <c r="P61" s="30" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="62" spans="5:20" ht="15">
-      <c r="M62" s="45" t="s">
+    <row r="62" spans="5:20" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="M62" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="N62" s="45">
+      <c r="N62" s="30">
         <f>((N51+N52)*N61+N60)*N56</f>
         <v>259.08992199976245</v>
       </c>
-      <c r="O62" s="45" t="s">
+      <c r="O62" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="P62" s="45" t="s">
+      <c r="P62" s="30" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="5:20" ht="15">
-      <c r="M63" s="45" t="s">
+    <row r="63" spans="5:20" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="M63" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="N63" s="45">
+      <c r="N63" s="30">
         <f>2*B5</f>
         <v>360</v>
       </c>
-      <c r="O63" s="45"/>
-      <c r="P63" s="45" t="s">
+      <c r="O63" s="30"/>
+      <c r="P63" s="30" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="64" spans="5:20">
-      <c r="M64" s="49" t="s">
+    <row r="64" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="M64" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="N64" s="50" t="s">
+      <c r="N64" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="O64" s="50"/>
-      <c r="P64" s="49" t="s">
+      <c r="O64" s="54"/>
+      <c r="P64" s="34" t="s">
         <v>91</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="N64:O64"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="M28:P29"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="H46:K46"/>
     <mergeCell ref="H45:K45"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="H40:K40"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="E26:K26"/>
     <mergeCell ref="F28:J29"/>
     <mergeCell ref="F31:J31"/>
     <mergeCell ref="H34:K34"/>
-    <mergeCell ref="H50:K50"/>
-    <mergeCell ref="H49:K49"/>
-    <mergeCell ref="H48:K48"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="H46:K46"/>
     <mergeCell ref="H38:K38"/>
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="H36:K36"/>
     <mergeCell ref="H35:K35"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="M28:P29"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="M1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="N47">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
@@ -2331,4 +2716,3144 @@
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBD76AD-5EC5-4012-8768-799E831EC14B}">
+  <dimension ref="A1:M40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.796875" customWidth="1"/>
+    <col min="5" max="5" width="30.09765625" customWidth="1"/>
+    <col min="6" max="6" width="10.3984375" customWidth="1"/>
+    <col min="9" max="9" width="36.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="36"/>
+      <c r="E1" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="36"/>
+      <c r="I1" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+    </row>
+    <row r="2" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="32">
+        <v>180</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="36"/>
+      <c r="E2" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="39">
+        <f>F8*F7*60*0.001</f>
+        <v>2.5694999999999997</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="36"/>
+      <c r="I2" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="32">
+        <v>60</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="36"/>
+      <c r="E3" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="39">
+        <v>10</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="36"/>
+      <c r="I3" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="39">
+        <v>0.8</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="36"/>
+      <c r="I4" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="39">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="36"/>
+      <c r="E5" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="39">
+        <v>10</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="36"/>
+      <c r="I5" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+    </row>
+    <row r="6" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="39">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="39">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="36"/>
+      <c r="E7" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="39">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G7" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="H7" s="36"/>
+      <c r="I7" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="39">
+        <v>571</v>
+      </c>
+      <c r="G8" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+    </row>
+    <row r="10" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="36"/>
+      <c r="E10" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+    </row>
+    <row r="11" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="F11" s="30">
+        <f>F4/F5</f>
+        <v>0.08</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+    </row>
+    <row r="12" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="44">
+        <f>F17</f>
+        <v>0.255</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="36"/>
+      <c r="E12" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="F12" s="30">
+        <f>0.5*F5*F11*F11</f>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+    </row>
+    <row r="13" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="30">
+        <f>F14</f>
+        <v>0.1</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="36"/>
+      <c r="E13" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" s="30" t="str">
+        <f>IF(2*F12 &lt;B6,"TRAPEZE","TRIANGLE")</f>
+        <v>TRIANGLE</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+    </row>
+    <row r="14" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" s="30">
+        <f>F22</f>
+        <v>0.4538722287164087</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="36"/>
+      <c r="E14" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="F14" s="41">
+        <f>IF(F13="TRIANGLE",2*SQRT(B6/F5),"PROBLEME")</f>
+        <v>0.1</v>
+      </c>
+      <c r="G14" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+    </row>
+    <row r="15" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" s="44">
+        <f>2*(B12+B13+B14)</f>
+        <v>1.6177444574328175</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="36"/>
+      <c r="E15" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+    </row>
+    <row r="16" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" s="30" t="str">
+        <f>IF(2*F12 &lt;B5,"TRAPEZE","TRIANGLE")</f>
+        <v>TRAPEZE</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+    </row>
+    <row r="17" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" s="30">
+        <f>B2/B3</f>
+        <v>3</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="36"/>
+      <c r="E17" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="F17" s="41">
+        <f>IF(F16="TRIANGLE",2*SQRT(B5/F5),2*F11+(B5-2*F12)/F4)</f>
+        <v>0.255</v>
+      </c>
+      <c r="G17" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+    </row>
+    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" s="45">
+        <f>B10+B9+B15</f>
+        <v>2.6177444574328175</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="36"/>
+      <c r="E18" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+    </row>
+    <row r="19" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" s="46" t="str">
+        <f>IF(B18&lt;B17,"OK","Pas bon")</f>
+        <v>OK</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="36"/>
+      <c r="E19" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="30">
+        <f>F2/F3</f>
+        <v>0.25694999999999996</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+    </row>
+    <row r="20" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="F20" s="30">
+        <f>0.5*F3*F19*F19</f>
+        <v>0.3301165124999999</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+    </row>
+    <row r="21" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="F21" s="30" t="str">
+        <f>IF(2*F20 &lt;B7,"TRAPEZE","TRIANGLE")</f>
+        <v>TRIANGLE</v>
+      </c>
+      <c r="G21" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+    </row>
+    <row r="22" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="F22" s="41">
+        <f>IF(F21="TRIANGLE",2*SQRT(B7/F3),"PROBLEME")</f>
+        <v>0.4538722287164087</v>
+      </c>
+      <c r="G22" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="36"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="36"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="36"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="36"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="36"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="36"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="36"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="36"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="36"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="36"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B6A03CE-B566-41C9-8838-E12FCE41EC10}">
+  <dimension ref="A1:T95"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="36"/>
+      <c r="E1" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="39">
+        <v>3.6</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="36"/>
+      <c r="E2" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" s="47">
+        <f>B22*B18</f>
+        <v>44.145000000000003</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+    </row>
+    <row r="3" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="39">
+        <v>0.77</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="36"/>
+      <c r="E3" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" s="47">
+        <f>B18*B27</f>
+        <v>618.9682519120023</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+    </row>
+    <row r="4" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="39">
+        <v>3</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="39">
+        <v>5.6</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="36"/>
+      <c r="E5" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" s="39">
+        <v>750</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="39">
+        <v>3</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="36"/>
+      <c r="E6" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="F6" s="39">
+        <v>840</v>
+      </c>
+      <c r="G6" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+    </row>
+    <row r="7" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" s="39">
+        <f>B6+B5+B4*B3</f>
+        <v>10.91</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+    </row>
+    <row r="8" spans="1:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="F8" s="40" t="str">
+        <f>IF(F2&lt;F5,"OK","PROBLEME")</f>
+        <v>OK</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="36"/>
+    </row>
+    <row r="9" spans="1:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="39">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="36"/>
+      <c r="E9" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="F9" s="40" t="str">
+        <f>IF(F3&lt;F6,"OK","PROBLEME")</f>
+        <v>OK</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+    </row>
+    <row r="10" spans="1:20" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="39">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="36"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="39">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="39">
+        <f>'[1]Translation - Temps de cycle'!F3</f>
+        <v>10</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+    </row>
+    <row r="14" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="51">
+        <f>'[1]Translation - Temps de cycle'!B12</f>
+        <v>0.255</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="36"/>
+    </row>
+    <row r="15" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" s="50">
+        <f>'[1]Translation - Temps de cycle'!B13</f>
+        <v>0.1</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+    </row>
+    <row r="16" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" s="50">
+        <f>'[1]Translation - Temps de cycle'!B14</f>
+        <v>0.4538722287164087</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+    </row>
+    <row r="17" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="52"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="36"/>
+    </row>
+    <row r="18" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18" s="53">
+        <v>5</v>
+      </c>
+      <c r="C18" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="36"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
+    </row>
+    <row r="20" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+    </row>
+    <row r="21" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="30">
+        <f>B10*9.81*B2</f>
+        <v>0.88290000000000013</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+    </row>
+    <row r="22" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="B22" s="30">
+        <f>B21/B15</f>
+        <v>8.8290000000000006</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="36"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="36"/>
+      <c r="T23" s="36"/>
+    </row>
+    <row r="24" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="36"/>
+    </row>
+    <row r="25" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="B25" s="30">
+        <f>B12*B7</f>
+        <v>109.1</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="36"/>
+    </row>
+    <row r="26" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="30">
+        <f>B11*B25</f>
+        <v>56.186499999999995</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="36"/>
+      <c r="T26" s="36"/>
+    </row>
+    <row r="27" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="B27" s="30">
+        <f>B26/B16</f>
+        <v>123.79365038240046</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="36"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="36"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="36"/>
+      <c r="T29" s="36"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="36"/>
+      <c r="R30" s="36"/>
+      <c r="S30" s="36"/>
+      <c r="T30" s="36"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="36"/>
+      <c r="R31" s="36"/>
+      <c r="S31" s="36"/>
+      <c r="T31" s="36"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="36"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="36"/>
+      <c r="R32" s="36"/>
+      <c r="S32" s="36"/>
+      <c r="T32" s="36"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="36"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36"/>
+      <c r="Q33" s="36"/>
+      <c r="R33" s="36"/>
+      <c r="S33" s="36"/>
+      <c r="T33" s="36"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="36"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="36"/>
+      <c r="R34" s="36"/>
+      <c r="S34" s="36"/>
+      <c r="T34" s="36"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="36"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="36"/>
+      <c r="R35" s="36"/>
+      <c r="S35" s="36"/>
+      <c r="T35" s="36"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="36"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="36"/>
+      <c r="Q36" s="36"/>
+      <c r="R36" s="36"/>
+      <c r="S36" s="36"/>
+      <c r="T36" s="36"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="36"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="36"/>
+      <c r="Q37" s="36"/>
+      <c r="R37" s="36"/>
+      <c r="S37" s="36"/>
+      <c r="T37" s="36"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" s="36"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="36"/>
+      <c r="Q38" s="36"/>
+      <c r="R38" s="36"/>
+      <c r="S38" s="36"/>
+      <c r="T38" s="36"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" s="36"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="36"/>
+      <c r="Q39" s="36"/>
+      <c r="R39" s="36"/>
+      <c r="S39" s="36"/>
+      <c r="T39" s="36"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" s="36"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="36"/>
+      <c r="O40" s="36"/>
+      <c r="P40" s="36"/>
+      <c r="Q40" s="36"/>
+      <c r="R40" s="36"/>
+      <c r="S40" s="36"/>
+      <c r="T40" s="36"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" s="36"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="36"/>
+      <c r="O41" s="36"/>
+      <c r="P41" s="36"/>
+      <c r="Q41" s="36"/>
+      <c r="R41" s="36"/>
+      <c r="S41" s="36"/>
+      <c r="T41" s="36"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" s="36"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="36"/>
+      <c r="O42" s="36"/>
+      <c r="P42" s="36"/>
+      <c r="Q42" s="36"/>
+      <c r="R42" s="36"/>
+      <c r="S42" s="36"/>
+      <c r="T42" s="36"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" s="36"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="36"/>
+      <c r="O43" s="36"/>
+      <c r="P43" s="36"/>
+      <c r="Q43" s="36"/>
+      <c r="R43" s="36"/>
+      <c r="S43" s="36"/>
+      <c r="T43" s="36"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" s="36"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="36"/>
+      <c r="L44" s="36"/>
+      <c r="M44" s="36"/>
+      <c r="N44" s="36"/>
+      <c r="O44" s="36"/>
+      <c r="P44" s="36"/>
+      <c r="Q44" s="36"/>
+      <c r="R44" s="36"/>
+      <c r="S44" s="36"/>
+      <c r="T44" s="36"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" s="36"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="36"/>
+      <c r="L45" s="36"/>
+      <c r="M45" s="36"/>
+      <c r="N45" s="36"/>
+      <c r="O45" s="36"/>
+      <c r="P45" s="36"/>
+      <c r="Q45" s="36"/>
+      <c r="R45" s="36"/>
+      <c r="S45" s="36"/>
+      <c r="T45" s="36"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" s="36"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="36"/>
+      <c r="L46" s="36"/>
+      <c r="M46" s="36"/>
+      <c r="N46" s="36"/>
+      <c r="O46" s="36"/>
+      <c r="P46" s="36"/>
+      <c r="Q46" s="36"/>
+      <c r="R46" s="36"/>
+      <c r="S46" s="36"/>
+      <c r="T46" s="36"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" s="36"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
+      <c r="N47" s="36"/>
+      <c r="O47" s="36"/>
+      <c r="P47" s="36"/>
+      <c r="Q47" s="36"/>
+      <c r="R47" s="36"/>
+      <c r="S47" s="36"/>
+      <c r="T47" s="36"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" s="36"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="36"/>
+      <c r="K48" s="36"/>
+      <c r="L48" s="36"/>
+      <c r="M48" s="36"/>
+      <c r="N48" s="36"/>
+      <c r="O48" s="36"/>
+      <c r="P48" s="36"/>
+      <c r="Q48" s="36"/>
+      <c r="R48" s="36"/>
+      <c r="S48" s="36"/>
+      <c r="T48" s="36"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" s="36"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="36"/>
+      <c r="K49" s="36"/>
+      <c r="L49" s="36"/>
+      <c r="M49" s="36"/>
+      <c r="N49" s="36"/>
+      <c r="O49" s="36"/>
+      <c r="P49" s="36"/>
+      <c r="Q49" s="36"/>
+      <c r="R49" s="36"/>
+      <c r="S49" s="36"/>
+      <c r="T49" s="36"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" s="36"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="36"/>
+      <c r="J50" s="36"/>
+      <c r="K50" s="36"/>
+      <c r="L50" s="36"/>
+      <c r="M50" s="36"/>
+      <c r="N50" s="36"/>
+      <c r="O50" s="36"/>
+      <c r="P50" s="36"/>
+      <c r="Q50" s="36"/>
+      <c r="R50" s="36"/>
+      <c r="S50" s="36"/>
+      <c r="T50" s="36"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" s="36"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="36"/>
+      <c r="K51" s="36"/>
+      <c r="L51" s="36"/>
+      <c r="M51" s="36"/>
+      <c r="N51" s="36"/>
+      <c r="O51" s="36"/>
+      <c r="P51" s="36"/>
+      <c r="Q51" s="36"/>
+      <c r="R51" s="36"/>
+      <c r="S51" s="36"/>
+      <c r="T51" s="36"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" s="36"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
+      <c r="N52" s="36"/>
+      <c r="O52" s="36"/>
+      <c r="P52" s="36"/>
+      <c r="Q52" s="36"/>
+      <c r="R52" s="36"/>
+      <c r="S52" s="36"/>
+      <c r="T52" s="36"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53" s="36"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+      <c r="N53" s="36"/>
+      <c r="O53" s="36"/>
+      <c r="P53" s="36"/>
+      <c r="Q53" s="36"/>
+      <c r="R53" s="36"/>
+      <c r="S53" s="36"/>
+      <c r="T53" s="36"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54" s="36"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
+      <c r="N54" s="36"/>
+      <c r="O54" s="36"/>
+      <c r="P54" s="36"/>
+      <c r="Q54" s="36"/>
+      <c r="R54" s="36"/>
+      <c r="S54" s="36"/>
+      <c r="T54" s="36"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55" s="36"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="36"/>
+      <c r="K55" s="36"/>
+      <c r="L55" s="36"/>
+      <c r="M55" s="36"/>
+      <c r="N55" s="36"/>
+      <c r="O55" s="36"/>
+      <c r="P55" s="36"/>
+      <c r="Q55" s="36"/>
+      <c r="R55" s="36"/>
+      <c r="S55" s="36"/>
+      <c r="T55" s="36"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A56" s="36"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="36"/>
+      <c r="K56" s="36"/>
+      <c r="L56" s="36"/>
+      <c r="M56" s="36"/>
+      <c r="N56" s="36"/>
+      <c r="O56" s="36"/>
+      <c r="P56" s="36"/>
+      <c r="Q56" s="36"/>
+      <c r="R56" s="36"/>
+      <c r="S56" s="36"/>
+      <c r="T56" s="36"/>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A57" s="36"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="36"/>
+      <c r="J57" s="36"/>
+      <c r="K57" s="36"/>
+      <c r="L57" s="36"/>
+      <c r="M57" s="36"/>
+      <c r="N57" s="36"/>
+      <c r="O57" s="36"/>
+      <c r="P57" s="36"/>
+      <c r="Q57" s="36"/>
+      <c r="R57" s="36"/>
+      <c r="S57" s="36"/>
+      <c r="T57" s="36"/>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A58" s="36"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="36"/>
+      <c r="J58" s="36"/>
+      <c r="K58" s="36"/>
+      <c r="L58" s="36"/>
+      <c r="M58" s="36"/>
+      <c r="N58" s="36"/>
+      <c r="O58" s="36"/>
+      <c r="P58" s="36"/>
+      <c r="Q58" s="36"/>
+      <c r="R58" s="36"/>
+      <c r="S58" s="36"/>
+      <c r="T58" s="36"/>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A59" s="36"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="36"/>
+      <c r="K59" s="36"/>
+      <c r="L59" s="36"/>
+      <c r="M59" s="36"/>
+      <c r="N59" s="36"/>
+      <c r="O59" s="36"/>
+      <c r="P59" s="36"/>
+      <c r="Q59" s="36"/>
+      <c r="R59" s="36"/>
+      <c r="S59" s="36"/>
+      <c r="T59" s="36"/>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A60" s="36"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="36"/>
+      <c r="K60" s="36"/>
+      <c r="L60" s="36"/>
+      <c r="M60" s="36"/>
+      <c r="N60" s="36"/>
+      <c r="O60" s="36"/>
+      <c r="P60" s="36"/>
+      <c r="Q60" s="36"/>
+      <c r="R60" s="36"/>
+      <c r="S60" s="36"/>
+      <c r="T60" s="36"/>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A61" s="36"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="36"/>
+      <c r="K61" s="36"/>
+      <c r="L61" s="36"/>
+      <c r="M61" s="36"/>
+      <c r="N61" s="36"/>
+      <c r="O61" s="36"/>
+      <c r="P61" s="36"/>
+      <c r="Q61" s="36"/>
+      <c r="R61" s="36"/>
+      <c r="S61" s="36"/>
+      <c r="T61" s="36"/>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A62" s="36"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="36"/>
+      <c r="I62" s="36"/>
+      <c r="J62" s="36"/>
+      <c r="K62" s="36"/>
+      <c r="L62" s="36"/>
+      <c r="M62" s="36"/>
+      <c r="N62" s="36"/>
+      <c r="O62" s="36"/>
+      <c r="P62" s="36"/>
+      <c r="Q62" s="36"/>
+      <c r="R62" s="36"/>
+      <c r="S62" s="36"/>
+      <c r="T62" s="36"/>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A63" s="36"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="36"/>
+      <c r="I63" s="36"/>
+      <c r="J63" s="36"/>
+      <c r="K63" s="36"/>
+      <c r="L63" s="36"/>
+      <c r="M63" s="36"/>
+      <c r="N63" s="36"/>
+      <c r="O63" s="36"/>
+      <c r="P63" s="36"/>
+      <c r="Q63" s="36"/>
+      <c r="R63" s="36"/>
+      <c r="S63" s="36"/>
+      <c r="T63" s="36"/>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A64" s="36"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="36"/>
+      <c r="G64" s="36"/>
+      <c r="H64" s="36"/>
+      <c r="I64" s="36"/>
+      <c r="J64" s="36"/>
+      <c r="K64" s="36"/>
+      <c r="L64" s="36"/>
+      <c r="M64" s="36"/>
+      <c r="N64" s="36"/>
+      <c r="O64" s="36"/>
+      <c r="P64" s="36"/>
+      <c r="Q64" s="36"/>
+      <c r="R64" s="36"/>
+      <c r="S64" s="36"/>
+      <c r="T64" s="36"/>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A65" s="36"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="36"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="36"/>
+      <c r="H65" s="36"/>
+      <c r="I65" s="36"/>
+      <c r="J65" s="36"/>
+      <c r="K65" s="36"/>
+      <c r="L65" s="36"/>
+      <c r="M65" s="36"/>
+      <c r="N65" s="36"/>
+      <c r="O65" s="36"/>
+      <c r="P65" s="36"/>
+      <c r="Q65" s="36"/>
+      <c r="R65" s="36"/>
+      <c r="S65" s="36"/>
+      <c r="T65" s="36"/>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A66" s="36"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="36"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="36"/>
+      <c r="I66" s="36"/>
+      <c r="J66" s="36"/>
+      <c r="K66" s="36"/>
+      <c r="L66" s="36"/>
+      <c r="M66" s="36"/>
+      <c r="N66" s="36"/>
+      <c r="O66" s="36"/>
+      <c r="P66" s="36"/>
+      <c r="Q66" s="36"/>
+      <c r="R66" s="36"/>
+      <c r="S66" s="36"/>
+      <c r="T66" s="36"/>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A67" s="36"/>
+      <c r="B67" s="36"/>
+      <c r="C67" s="36"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="36"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="36"/>
+      <c r="H67" s="36"/>
+      <c r="I67" s="36"/>
+      <c r="J67" s="36"/>
+      <c r="K67" s="36"/>
+      <c r="L67" s="36"/>
+      <c r="M67" s="36"/>
+      <c r="N67" s="36"/>
+      <c r="O67" s="36"/>
+      <c r="P67" s="36"/>
+      <c r="Q67" s="36"/>
+      <c r="R67" s="36"/>
+      <c r="S67" s="36"/>
+      <c r="T67" s="36"/>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A68" s="36"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="36"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="36"/>
+      <c r="I68" s="36"/>
+      <c r="J68" s="36"/>
+      <c r="K68" s="36"/>
+      <c r="L68" s="36"/>
+      <c r="M68" s="36"/>
+      <c r="N68" s="36"/>
+      <c r="O68" s="36"/>
+      <c r="P68" s="36"/>
+      <c r="Q68" s="36"/>
+      <c r="R68" s="36"/>
+      <c r="S68" s="36"/>
+      <c r="T68" s="36"/>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A69" s="36"/>
+      <c r="B69" s="36"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="36"/>
+      <c r="F69" s="36"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="36"/>
+      <c r="I69" s="36"/>
+      <c r="J69" s="36"/>
+      <c r="K69" s="36"/>
+      <c r="L69" s="36"/>
+      <c r="M69" s="36"/>
+      <c r="N69" s="36"/>
+      <c r="O69" s="36"/>
+      <c r="P69" s="36"/>
+      <c r="Q69" s="36"/>
+      <c r="R69" s="36"/>
+      <c r="S69" s="36"/>
+      <c r="T69" s="36"/>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A70" s="36"/>
+      <c r="B70" s="36"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="36"/>
+      <c r="F70" s="36"/>
+      <c r="G70" s="36"/>
+      <c r="H70" s="36"/>
+      <c r="I70" s="36"/>
+      <c r="J70" s="36"/>
+      <c r="K70" s="36"/>
+      <c r="L70" s="36"/>
+      <c r="M70" s="36"/>
+      <c r="N70" s="36"/>
+      <c r="O70" s="36"/>
+      <c r="P70" s="36"/>
+      <c r="Q70" s="36"/>
+      <c r="R70" s="36"/>
+      <c r="S70" s="36"/>
+      <c r="T70" s="36"/>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A71" s="36"/>
+      <c r="B71" s="36"/>
+      <c r="C71" s="36"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="36"/>
+      <c r="F71" s="36"/>
+      <c r="G71" s="36"/>
+      <c r="H71" s="36"/>
+      <c r="I71" s="36"/>
+      <c r="J71" s="36"/>
+      <c r="K71" s="36"/>
+      <c r="L71" s="36"/>
+      <c r="M71" s="36"/>
+      <c r="N71" s="36"/>
+      <c r="O71" s="36"/>
+      <c r="P71" s="36"/>
+      <c r="Q71" s="36"/>
+      <c r="R71" s="36"/>
+      <c r="S71" s="36"/>
+      <c r="T71" s="36"/>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A72" s="36"/>
+      <c r="B72" s="36"/>
+      <c r="C72" s="36"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="36"/>
+      <c r="F72" s="36"/>
+      <c r="G72" s="36"/>
+      <c r="H72" s="36"/>
+      <c r="I72" s="36"/>
+      <c r="J72" s="36"/>
+      <c r="K72" s="36"/>
+      <c r="L72" s="36"/>
+      <c r="M72" s="36"/>
+      <c r="N72" s="36"/>
+      <c r="O72" s="36"/>
+      <c r="P72" s="36"/>
+      <c r="Q72" s="36"/>
+      <c r="R72" s="36"/>
+      <c r="S72" s="36"/>
+      <c r="T72" s="36"/>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A73" s="36"/>
+      <c r="B73" s="36"/>
+      <c r="C73" s="36"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="36"/>
+      <c r="F73" s="36"/>
+      <c r="G73" s="36"/>
+      <c r="H73" s="36"/>
+      <c r="I73" s="36"/>
+      <c r="J73" s="36"/>
+      <c r="K73" s="36"/>
+      <c r="L73" s="36"/>
+      <c r="M73" s="36"/>
+      <c r="N73" s="36"/>
+      <c r="O73" s="36"/>
+      <c r="P73" s="36"/>
+      <c r="Q73" s="36"/>
+      <c r="R73" s="36"/>
+      <c r="S73" s="36"/>
+      <c r="T73" s="36"/>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A74" s="36"/>
+      <c r="B74" s="36"/>
+      <c r="C74" s="36"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="36"/>
+      <c r="F74" s="36"/>
+      <c r="G74" s="36"/>
+      <c r="H74" s="36"/>
+      <c r="I74" s="36"/>
+      <c r="J74" s="36"/>
+      <c r="K74" s="36"/>
+      <c r="L74" s="36"/>
+      <c r="M74" s="36"/>
+      <c r="N74" s="36"/>
+      <c r="O74" s="36"/>
+      <c r="P74" s="36"/>
+      <c r="Q74" s="36"/>
+      <c r="R74" s="36"/>
+      <c r="S74" s="36"/>
+      <c r="T74" s="36"/>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A75" s="36"/>
+      <c r="B75" s="36"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="36"/>
+      <c r="E75" s="36"/>
+      <c r="F75" s="36"/>
+      <c r="G75" s="36"/>
+      <c r="H75" s="36"/>
+      <c r="I75" s="36"/>
+      <c r="J75" s="36"/>
+      <c r="K75" s="36"/>
+      <c r="L75" s="36"/>
+      <c r="M75" s="36"/>
+      <c r="N75" s="36"/>
+      <c r="O75" s="36"/>
+      <c r="P75" s="36"/>
+      <c r="Q75" s="36"/>
+      <c r="R75" s="36"/>
+      <c r="S75" s="36"/>
+      <c r="T75" s="36"/>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A76" s="36"/>
+      <c r="B76" s="36"/>
+      <c r="C76" s="36"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="36"/>
+      <c r="F76" s="36"/>
+      <c r="G76" s="36"/>
+      <c r="H76" s="36"/>
+      <c r="I76" s="36"/>
+      <c r="J76" s="36"/>
+      <c r="K76" s="36"/>
+      <c r="L76" s="36"/>
+      <c r="M76" s="36"/>
+      <c r="N76" s="36"/>
+      <c r="O76" s="36"/>
+      <c r="P76" s="36"/>
+      <c r="Q76" s="36"/>
+      <c r="R76" s="36"/>
+      <c r="S76" s="36"/>
+      <c r="T76" s="36"/>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A77" s="36"/>
+      <c r="B77" s="36"/>
+      <c r="C77" s="36"/>
+      <c r="D77" s="36"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="36"/>
+      <c r="G77" s="36"/>
+      <c r="H77" s="36"/>
+      <c r="I77" s="36"/>
+      <c r="J77" s="36"/>
+      <c r="K77" s="36"/>
+      <c r="L77" s="36"/>
+      <c r="M77" s="36"/>
+      <c r="N77" s="36"/>
+      <c r="O77" s="36"/>
+      <c r="P77" s="36"/>
+      <c r="Q77" s="36"/>
+      <c r="R77" s="36"/>
+      <c r="S77" s="36"/>
+      <c r="T77" s="36"/>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A78" s="36"/>
+      <c r="B78" s="36"/>
+      <c r="C78" s="36"/>
+      <c r="D78" s="36"/>
+      <c r="E78" s="36"/>
+      <c r="F78" s="36"/>
+      <c r="G78" s="36"/>
+      <c r="H78" s="36"/>
+      <c r="I78" s="36"/>
+      <c r="J78" s="36"/>
+      <c r="K78" s="36"/>
+      <c r="L78" s="36"/>
+      <c r="M78" s="36"/>
+      <c r="N78" s="36"/>
+      <c r="O78" s="36"/>
+      <c r="P78" s="36"/>
+      <c r="Q78" s="36"/>
+      <c r="R78" s="36"/>
+      <c r="S78" s="36"/>
+      <c r="T78" s="36"/>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A79" s="36"/>
+      <c r="B79" s="36"/>
+      <c r="C79" s="36"/>
+      <c r="D79" s="36"/>
+      <c r="E79" s="36"/>
+      <c r="F79" s="36"/>
+      <c r="G79" s="36"/>
+      <c r="H79" s="36"/>
+      <c r="I79" s="36"/>
+      <c r="J79" s="36"/>
+      <c r="K79" s="36"/>
+      <c r="L79" s="36"/>
+      <c r="M79" s="36"/>
+      <c r="N79" s="36"/>
+      <c r="O79" s="36"/>
+      <c r="P79" s="36"/>
+      <c r="Q79" s="36"/>
+      <c r="R79" s="36"/>
+      <c r="S79" s="36"/>
+      <c r="T79" s="36"/>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A80" s="36"/>
+      <c r="B80" s="36"/>
+      <c r="C80" s="36"/>
+      <c r="D80" s="36"/>
+      <c r="E80" s="36"/>
+      <c r="F80" s="36"/>
+      <c r="G80" s="36"/>
+      <c r="H80" s="36"/>
+      <c r="I80" s="36"/>
+      <c r="J80" s="36"/>
+      <c r="K80" s="36"/>
+      <c r="L80" s="36"/>
+      <c r="M80" s="36"/>
+      <c r="N80" s="36"/>
+      <c r="O80" s="36"/>
+      <c r="P80" s="36"/>
+      <c r="Q80" s="36"/>
+      <c r="R80" s="36"/>
+      <c r="S80" s="36"/>
+      <c r="T80" s="36"/>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A81" s="36"/>
+      <c r="B81" s="36"/>
+      <c r="C81" s="36"/>
+      <c r="D81" s="36"/>
+      <c r="E81" s="36"/>
+      <c r="F81" s="36"/>
+      <c r="G81" s="36"/>
+      <c r="H81" s="36"/>
+      <c r="I81" s="36"/>
+      <c r="J81" s="36"/>
+      <c r="K81" s="36"/>
+      <c r="L81" s="36"/>
+      <c r="M81" s="36"/>
+      <c r="N81" s="36"/>
+      <c r="O81" s="36"/>
+      <c r="P81" s="36"/>
+      <c r="Q81" s="36"/>
+      <c r="R81" s="36"/>
+      <c r="S81" s="36"/>
+      <c r="T81" s="36"/>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A82" s="36"/>
+      <c r="B82" s="36"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="36"/>
+      <c r="E82" s="36"/>
+      <c r="F82" s="36"/>
+      <c r="G82" s="36"/>
+      <c r="H82" s="36"/>
+      <c r="I82" s="36"/>
+      <c r="J82" s="36"/>
+      <c r="K82" s="36"/>
+      <c r="L82" s="36"/>
+      <c r="M82" s="36"/>
+      <c r="N82" s="36"/>
+      <c r="O82" s="36"/>
+      <c r="P82" s="36"/>
+      <c r="Q82" s="36"/>
+      <c r="R82" s="36"/>
+      <c r="S82" s="36"/>
+      <c r="T82" s="36"/>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A83" s="36"/>
+      <c r="B83" s="36"/>
+      <c r="C83" s="36"/>
+      <c r="D83" s="36"/>
+      <c r="E83" s="36"/>
+      <c r="F83" s="36"/>
+      <c r="G83" s="36"/>
+      <c r="H83" s="36"/>
+      <c r="I83" s="36"/>
+      <c r="J83" s="36"/>
+      <c r="K83" s="36"/>
+      <c r="L83" s="36"/>
+      <c r="M83" s="36"/>
+      <c r="N83" s="36"/>
+      <c r="O83" s="36"/>
+      <c r="P83" s="36"/>
+      <c r="Q83" s="36"/>
+      <c r="R83" s="36"/>
+      <c r="S83" s="36"/>
+      <c r="T83" s="36"/>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A84" s="36"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
+      <c r="E84" s="36"/>
+      <c r="F84" s="36"/>
+      <c r="G84" s="36"/>
+      <c r="H84" s="36"/>
+      <c r="I84" s="36"/>
+      <c r="J84" s="36"/>
+      <c r="K84" s="36"/>
+      <c r="L84" s="36"/>
+      <c r="M84" s="36"/>
+      <c r="N84" s="36"/>
+      <c r="O84" s="36"/>
+      <c r="P84" s="36"/>
+      <c r="Q84" s="36"/>
+      <c r="R84" s="36"/>
+      <c r="S84" s="36"/>
+      <c r="T84" s="36"/>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A85" s="36"/>
+      <c r="B85" s="36"/>
+      <c r="C85" s="36"/>
+      <c r="D85" s="36"/>
+      <c r="E85" s="36"/>
+      <c r="F85" s="36"/>
+      <c r="G85" s="36"/>
+      <c r="H85" s="36"/>
+      <c r="I85" s="36"/>
+      <c r="J85" s="36"/>
+      <c r="K85" s="36"/>
+      <c r="L85" s="36"/>
+      <c r="M85" s="36"/>
+      <c r="N85" s="36"/>
+      <c r="O85" s="36"/>
+      <c r="P85" s="36"/>
+      <c r="Q85" s="36"/>
+      <c r="R85" s="36"/>
+      <c r="S85" s="36"/>
+      <c r="T85" s="36"/>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A86" s="36"/>
+      <c r="B86" s="36"/>
+      <c r="C86" s="36"/>
+      <c r="D86" s="36"/>
+      <c r="E86" s="36"/>
+      <c r="F86" s="36"/>
+      <c r="G86" s="36"/>
+      <c r="H86" s="36"/>
+      <c r="I86" s="36"/>
+      <c r="J86" s="36"/>
+      <c r="K86" s="36"/>
+      <c r="L86" s="36"/>
+      <c r="M86" s="36"/>
+      <c r="N86" s="36"/>
+      <c r="O86" s="36"/>
+      <c r="P86" s="36"/>
+      <c r="Q86" s="36"/>
+      <c r="R86" s="36"/>
+      <c r="S86" s="36"/>
+      <c r="T86" s="36"/>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A87" s="36"/>
+      <c r="B87" s="36"/>
+      <c r="C87" s="36"/>
+      <c r="D87" s="36"/>
+      <c r="E87" s="36"/>
+      <c r="F87" s="36"/>
+      <c r="G87" s="36"/>
+      <c r="H87" s="36"/>
+      <c r="I87" s="36"/>
+      <c r="J87" s="36"/>
+      <c r="K87" s="36"/>
+      <c r="L87" s="36"/>
+      <c r="M87" s="36"/>
+      <c r="N87" s="36"/>
+      <c r="O87" s="36"/>
+      <c r="P87" s="36"/>
+      <c r="Q87" s="36"/>
+      <c r="R87" s="36"/>
+      <c r="S87" s="36"/>
+      <c r="T87" s="36"/>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A88" s="36"/>
+      <c r="B88" s="36"/>
+      <c r="C88" s="36"/>
+      <c r="D88" s="36"/>
+      <c r="E88" s="36"/>
+      <c r="F88" s="36"/>
+      <c r="G88" s="36"/>
+      <c r="H88" s="36"/>
+      <c r="I88" s="36"/>
+      <c r="J88" s="36"/>
+      <c r="K88" s="36"/>
+      <c r="L88" s="36"/>
+      <c r="M88" s="36"/>
+      <c r="N88" s="36"/>
+      <c r="O88" s="36"/>
+      <c r="P88" s="36"/>
+      <c r="Q88" s="36"/>
+      <c r="R88" s="36"/>
+      <c r="S88" s="36"/>
+      <c r="T88" s="36"/>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A89" s="36"/>
+      <c r="B89" s="36"/>
+      <c r="C89" s="36"/>
+      <c r="D89" s="36"/>
+      <c r="E89" s="36"/>
+      <c r="F89" s="36"/>
+      <c r="G89" s="36"/>
+      <c r="H89" s="36"/>
+      <c r="I89" s="36"/>
+      <c r="J89" s="36"/>
+      <c r="K89" s="36"/>
+      <c r="L89" s="36"/>
+      <c r="M89" s="36"/>
+      <c r="N89" s="36"/>
+      <c r="O89" s="36"/>
+      <c r="P89" s="36"/>
+      <c r="Q89" s="36"/>
+      <c r="R89" s="36"/>
+      <c r="S89" s="36"/>
+      <c r="T89" s="36"/>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A90" s="36"/>
+      <c r="B90" s="36"/>
+      <c r="C90" s="36"/>
+      <c r="D90" s="36"/>
+      <c r="E90" s="36"/>
+      <c r="F90" s="36"/>
+      <c r="G90" s="36"/>
+      <c r="H90" s="36"/>
+      <c r="I90" s="36"/>
+      <c r="J90" s="36"/>
+      <c r="K90" s="36"/>
+      <c r="L90" s="36"/>
+      <c r="M90" s="36"/>
+      <c r="N90" s="36"/>
+      <c r="O90" s="36"/>
+      <c r="P90" s="36"/>
+      <c r="Q90" s="36"/>
+      <c r="R90" s="36"/>
+      <c r="S90" s="36"/>
+      <c r="T90" s="36"/>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A91" s="36"/>
+      <c r="B91" s="36"/>
+      <c r="C91" s="36"/>
+      <c r="D91" s="36"/>
+      <c r="E91" s="36"/>
+      <c r="F91" s="36"/>
+      <c r="G91" s="36"/>
+      <c r="H91" s="36"/>
+      <c r="I91" s="36"/>
+      <c r="J91" s="36"/>
+      <c r="K91" s="36"/>
+      <c r="L91" s="36"/>
+      <c r="M91" s="36"/>
+      <c r="N91" s="36"/>
+      <c r="O91" s="36"/>
+      <c r="P91" s="36"/>
+      <c r="Q91" s="36"/>
+      <c r="R91" s="36"/>
+      <c r="S91" s="36"/>
+      <c r="T91" s="36"/>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A92" s="36"/>
+      <c r="B92" s="36"/>
+      <c r="C92" s="36"/>
+      <c r="D92" s="36"/>
+      <c r="E92" s="36"/>
+      <c r="F92" s="36"/>
+      <c r="G92" s="36"/>
+      <c r="H92" s="36"/>
+      <c r="I92" s="36"/>
+      <c r="J92" s="36"/>
+      <c r="K92" s="36"/>
+      <c r="L92" s="36"/>
+      <c r="M92" s="36"/>
+      <c r="N92" s="36"/>
+      <c r="O92" s="36"/>
+      <c r="P92" s="36"/>
+      <c r="Q92" s="36"/>
+      <c r="R92" s="36"/>
+      <c r="S92" s="36"/>
+      <c r="T92" s="36"/>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A93" s="36"/>
+      <c r="B93" s="36"/>
+      <c r="C93" s="36"/>
+      <c r="D93" s="36"/>
+      <c r="E93" s="36"/>
+      <c r="F93" s="36"/>
+      <c r="G93" s="36"/>
+      <c r="H93" s="36"/>
+      <c r="I93" s="36"/>
+      <c r="J93" s="36"/>
+      <c r="K93" s="36"/>
+      <c r="L93" s="36"/>
+      <c r="M93" s="36"/>
+      <c r="N93" s="36"/>
+      <c r="O93" s="36"/>
+      <c r="P93" s="36"/>
+      <c r="Q93" s="36"/>
+      <c r="R93" s="36"/>
+      <c r="S93" s="36"/>
+      <c r="T93" s="36"/>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A94" s="36"/>
+      <c r="B94" s="36"/>
+      <c r="C94" s="36"/>
+      <c r="D94" s="36"/>
+      <c r="E94" s="36"/>
+      <c r="F94" s="36"/>
+      <c r="G94" s="36"/>
+      <c r="H94" s="36"/>
+      <c r="I94" s="36"/>
+      <c r="J94" s="36"/>
+      <c r="K94" s="36"/>
+      <c r="L94" s="36"/>
+      <c r="M94" s="36"/>
+      <c r="N94" s="36"/>
+      <c r="O94" s="36"/>
+      <c r="P94" s="36"/>
+      <c r="Q94" s="36"/>
+      <c r="R94" s="36"/>
+      <c r="S94" s="36"/>
+      <c r="T94" s="36"/>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A95" s="36"/>
+      <c r="B95" s="36"/>
+      <c r="C95" s="36"/>
+      <c r="D95" s="36"/>
+      <c r="E95" s="36"/>
+      <c r="F95" s="36"/>
+      <c r="G95" s="36"/>
+      <c r="H95" s="36"/>
+      <c r="I95" s="36"/>
+      <c r="J95" s="36"/>
+      <c r="K95" s="36"/>
+      <c r="L95" s="36"/>
+      <c r="M95" s="36"/>
+      <c r="N95" s="36"/>
+      <c r="O95" s="36"/>
+      <c r="P95" s="36"/>
+      <c r="Q95" s="36"/>
+      <c r="R95" s="36"/>
+      <c r="S95" s="36"/>
+      <c r="T95" s="36"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/predimmensionnement.xlsx
+++ b/predimmensionnement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\INSA\MIQ4\S8\Construction\projet_constru_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34DB8DA-E093-40A7-98D1-68D1465F0278}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1146BD-1725-4B4F-87F9-67F20663430B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1096,6 +1096,33 @@
     <xf numFmtId="2" fontId="25" fillId="10" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="18" borderId="2" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="10" borderId="2" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="21" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="2" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1116,33 +1143,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="21" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -1656,36 +1656,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
       <c r="D1" s="6"/>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
       <c r="L1" s="6"/>
-      <c r="M1" s="60" t="s">
+      <c r="M1" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
       <c r="Q1" s="29"/>
       <c r="R1" s="28"/>
       <c r="S1" s="28"/>
     </row>
     <row r="2" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
       <c r="D2" s="6"/>
       <c r="L2" s="6"/>
     </row>
@@ -1919,12 +1919,12 @@
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="6"/>
-      <c r="M25" s="55" t="s">
+      <c r="M25" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="N25" s="55"/>
-      <c r="O25" s="55"/>
-      <c r="P25" s="55"/>
+      <c r="N25" s="64"/>
+      <c r="O25" s="64"/>
+      <c r="P25" s="64"/>
       <c r="Q25" s="20"/>
       <c r="R25" s="25"/>
       <c r="S25" s="25"/>
@@ -1932,15 +1932,15 @@
     </row>
     <row r="26" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D26" s="6"/>
-      <c r="E26" s="68" t="s">
+      <c r="E26" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="68"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
       <c r="L26" s="6"/>
       <c r="R26" s="24"/>
       <c r="S26" s="24"/>
@@ -1955,20 +1955,20 @@
     </row>
     <row r="28" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D28" s="6"/>
-      <c r="F28" s="69" t="s">
+      <c r="F28" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="G28" s="69"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
       <c r="L28" s="6"/>
-      <c r="M28" s="56" t="s">
+      <c r="M28" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="N28" s="56"/>
-      <c r="O28" s="56"/>
-      <c r="P28" s="56"/>
+      <c r="N28" s="65"/>
+      <c r="O28" s="65"/>
+      <c r="P28" s="65"/>
       <c r="Q28" s="21"/>
       <c r="R28" s="26"/>
       <c r="S28" s="23"/>
@@ -1976,16 +1976,16 @@
     </row>
     <row r="29" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D29" s="6"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="59"/>
       <c r="L29" s="6"/>
-      <c r="M29" s="56"/>
-      <c r="N29" s="56"/>
-      <c r="O29" s="56"/>
-      <c r="P29" s="56"/>
+      <c r="M29" s="65"/>
+      <c r="N29" s="65"/>
+      <c r="O29" s="65"/>
+      <c r="P29" s="65"/>
       <c r="Q29" s="21"/>
       <c r="R29" s="26"/>
       <c r="S29" s="23"/>
@@ -1998,13 +1998,13 @@
       <c r="T30" s="24"/>
     </row>
     <row r="31" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="F31" s="61" t="s">
+      <c r="F31" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="61"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="60"/>
       <c r="R31" s="23"/>
       <c r="S31" s="23"/>
       <c r="T31" s="24"/>
@@ -2029,12 +2029,12 @@
       <c r="G34" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H34" s="61" t="s">
+      <c r="H34" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="I34" s="61"/>
-      <c r="J34" s="61"/>
-      <c r="K34" s="61"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="60"/>
       <c r="M34" s="8" t="s">
         <v>28</v>
       </c>
@@ -2063,12 +2063,12 @@
       <c r="G35" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H35" s="64" t="s">
+      <c r="H35" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="I35" s="65"/>
-      <c r="J35" s="65"/>
-      <c r="K35" s="65"/>
+      <c r="I35" s="62"/>
+      <c r="J35" s="62"/>
+      <c r="K35" s="62"/>
       <c r="M35" s="32" t="s">
         <v>12</v>
       </c>
@@ -2098,12 +2098,12 @@
       <c r="G36" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H36" s="62" t="s">
+      <c r="H36" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="I36" s="63"/>
-      <c r="J36" s="63"/>
-      <c r="K36" s="63"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="55"/>
+      <c r="K36" s="55"/>
       <c r="M36" s="32" t="s">
         <v>9</v>
       </c>
@@ -2131,12 +2131,12 @@
       <c r="G37" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H37" s="62" t="s">
+      <c r="H37" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="I37" s="63"/>
-      <c r="J37" s="63"/>
-      <c r="K37" s="63"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="55"/>
+      <c r="K37" s="55"/>
       <c r="M37" s="32" t="s">
         <v>66</v>
       </c>
@@ -2160,12 +2160,12 @@
       <c r="G38" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H38" s="62" t="s">
+      <c r="H38" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="I38" s="63"/>
-      <c r="J38" s="63"/>
-      <c r="K38" s="63"/>
+      <c r="I38" s="55"/>
+      <c r="J38" s="55"/>
+      <c r="K38" s="55"/>
       <c r="M38" s="32" t="s">
         <v>46</v>
       </c>
@@ -2192,12 +2192,12 @@
       <c r="G39" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H39" s="62" t="s">
+      <c r="H39" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="I39" s="63"/>
-      <c r="J39" s="63"/>
-      <c r="K39" s="63"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="55"/>
+      <c r="K39" s="55"/>
       <c r="M39" s="32" t="s">
         <v>47</v>
       </c>
@@ -2223,12 +2223,12 @@
       <c r="G40" s="11">
         <v>1</v>
       </c>
-      <c r="H40" s="62" t="s">
+      <c r="H40" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="I40" s="63"/>
-      <c r="J40" s="63"/>
-      <c r="K40" s="63"/>
+      <c r="I40" s="55"/>
+      <c r="J40" s="55"/>
+      <c r="K40" s="55"/>
       <c r="M40" s="32" t="s">
         <v>48</v>
       </c>
@@ -2250,10 +2250,10 @@
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
-      <c r="H41" s="62"/>
-      <c r="I41" s="63"/>
-      <c r="J41" s="63"/>
-      <c r="K41" s="63"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="55"/>
+      <c r="K41" s="55"/>
       <c r="M41" s="32" t="s">
         <v>32</v>
       </c>
@@ -2275,10 +2275,10 @@
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="63"/>
-      <c r="J42" s="63"/>
-      <c r="K42" s="63"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="55"/>
+      <c r="J42" s="55"/>
+      <c r="K42" s="55"/>
       <c r="M42" s="32" t="s">
         <v>49</v>
       </c>
@@ -2300,10 +2300,10 @@
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
-      <c r="H43" s="62"/>
-      <c r="I43" s="63"/>
-      <c r="J43" s="63"/>
-      <c r="K43" s="63"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="55"/>
+      <c r="J43" s="55"/>
+      <c r="K43" s="55"/>
       <c r="M43" s="30" t="s">
         <v>55</v>
       </c>
@@ -2326,10 +2326,10 @@
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
-      <c r="H44" s="62"/>
-      <c r="I44" s="63"/>
-      <c r="J44" s="63"/>
-      <c r="K44" s="63"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="55"/>
+      <c r="K44" s="55"/>
       <c r="M44" s="30" t="s">
         <v>57</v>
       </c>
@@ -2352,10 +2352,10 @@
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
-      <c r="H45" s="62"/>
-      <c r="I45" s="63"/>
-      <c r="J45" s="63"/>
-      <c r="K45" s="63"/>
+      <c r="H45" s="54"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="55"/>
+      <c r="K45" s="55"/>
       <c r="M45" s="30" t="s">
         <v>60</v>
       </c>
@@ -2378,10 +2378,10 @@
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
-      <c r="H46" s="62"/>
-      <c r="I46" s="63"/>
-      <c r="J46" s="63"/>
-      <c r="K46" s="63"/>
+      <c r="H46" s="54"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="55"/>
+      <c r="K46" s="55"/>
       <c r="M46" s="30" t="s">
         <v>63</v>
       </c>
@@ -2404,10 +2404,10 @@
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
-      <c r="H47" s="62"/>
-      <c r="I47" s="63"/>
-      <c r="J47" s="63"/>
-      <c r="K47" s="63"/>
+      <c r="H47" s="54"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="55"/>
+      <c r="K47" s="55"/>
       <c r="M47" s="30" t="s">
         <v>68</v>
       </c>
@@ -2428,10 +2428,10 @@
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
-      <c r="H48" s="62"/>
-      <c r="I48" s="63"/>
-      <c r="J48" s="63"/>
-      <c r="K48" s="63"/>
+      <c r="H48" s="54"/>
+      <c r="I48" s="55"/>
+      <c r="J48" s="55"/>
+      <c r="K48" s="55"/>
       <c r="M48" s="14"/>
       <c r="N48" s="14"/>
       <c r="O48" s="14"/>
@@ -2445,10 +2445,10 @@
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
-      <c r="H49" s="62"/>
-      <c r="I49" s="63"/>
-      <c r="J49" s="63"/>
-      <c r="K49" s="63"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="55"/>
+      <c r="K49" s="55"/>
       <c r="R49" s="23"/>
       <c r="S49" s="23"/>
       <c r="T49" s="24"/>
@@ -2457,16 +2457,16 @@
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
-      <c r="H50" s="62"/>
-      <c r="I50" s="63"/>
-      <c r="J50" s="63"/>
-      <c r="K50" s="63"/>
-      <c r="M50" s="57" t="s">
+      <c r="H50" s="54"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="55"/>
+      <c r="K50" s="55"/>
+      <c r="M50" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="N50" s="58"/>
-      <c r="O50" s="58"/>
-      <c r="P50" s="59"/>
+      <c r="N50" s="67"/>
+      <c r="O50" s="67"/>
+      <c r="P50" s="68"/>
       <c r="Q50" s="22"/>
       <c r="R50" s="27"/>
       <c r="S50" s="27"/>
@@ -2659,16 +2659,31 @@
       <c r="M64" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="N64" s="54" t="s">
+      <c r="N64" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="O64" s="54"/>
+      <c r="O64" s="63"/>
       <c r="P64" s="34" t="s">
         <v>91</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="M28:P29"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="E26:K26"/>
+    <mergeCell ref="F28:J29"/>
+    <mergeCell ref="F31:J31"/>
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="H50:K50"/>
     <mergeCell ref="H49:K49"/>
@@ -2681,21 +2696,6 @@
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="H40:K40"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="E1:K1"/>
-    <mergeCell ref="E26:K26"/>
-    <mergeCell ref="F28:J29"/>
-    <mergeCell ref="F31:J31"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="N64:O64"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="M28:P29"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="M1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="N47">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
@@ -2723,7 +2723,7 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/predimmensionnement.xlsx
+++ b/predimmensionnement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\INSA\MIQ4\S8\Construction\projet_constru_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1146BD-1725-4B4F-87F9-67F20663430B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DF626C-3C10-4BCC-9FC8-245C27848BBA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Convoyeur" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="151">
   <si>
     <t>Donnees d'entrée liees à la chute 
 des disques de frein</t>
@@ -459,9 +459,6 @@
     <t>Nombre de préhenseurs</t>
   </si>
   <si>
-    <t>Masse du vérin + moteur</t>
-  </si>
-  <si>
     <t>Puissance du vérin choisi</t>
   </si>
   <si>
@@ -487,13 +484,19 @@
   </si>
   <si>
     <t>Force</t>
+  </si>
+  <si>
+    <t>Masse piece interface</t>
+  </si>
+  <si>
+    <t>Masse du vérin + moteur + interface</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -677,6 +680,16 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Liberation Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Liberation Sans"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="19">
@@ -1027,7 +1040,7 @@
     <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1144,6 +1157,9 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="2" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="2" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="3" applyFont="1"/>
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="Accent" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1635,7 +1651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T64"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="P68" sqref="P68"/>
     </sheetView>
   </sheetViews>
@@ -2722,16 +2738,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBD76AD-5EC5-4012-8768-799E831EC14B}">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.796875" customWidth="1"/>
-    <col min="5" max="5" width="30.09765625" customWidth="1"/>
+    <col min="5" max="5" width="33.8984375" customWidth="1"/>
     <col min="6" max="6" width="10.3984375" customWidth="1"/>
-    <col min="9" max="9" width="36.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
@@ -2850,7 +2866,8 @@
         <v>104</v>
       </c>
       <c r="B5" s="39">
-        <v>0.14000000000000001</v>
+        <f>0.14 + 0.06</f>
+        <v>0.2</v>
       </c>
       <c r="C5" s="39" t="s">
         <v>12</v>
@@ -2879,7 +2896,8 @@
         <v>107</v>
       </c>
       <c r="B6" s="39">
-        <v>2.5000000000000001E-2</v>
+        <f>0.025 + 0.06</f>
+        <v>8.4999999999999992E-2</v>
       </c>
       <c r="C6" s="39" t="s">
         <v>12</v>
@@ -3019,7 +3037,7 @@
       </c>
       <c r="B12" s="44">
         <f>F17</f>
-        <v>0.255</v>
+        <v>0.33</v>
       </c>
       <c r="C12" s="30" t="s">
         <v>20</v>
@@ -3048,7 +3066,7 @@
       </c>
       <c r="B13" s="30">
         <f>F14</f>
-        <v>0.1</v>
+        <v>0.33</v>
       </c>
       <c r="C13" s="30" t="s">
         <v>20</v>
@@ -3059,7 +3077,7 @@
       </c>
       <c r="F13" s="30" t="str">
         <f>IF(2*F12 &lt;B6,"TRAPEZE","TRIANGLE")</f>
-        <v>TRIANGLE</v>
+        <v>TRAPEZE</v>
       </c>
       <c r="G13" s="30" t="s">
         <v>99</v>
@@ -3087,8 +3105,8 @@
         <v>124</v>
       </c>
       <c r="F14" s="41">
-        <f>IF(F13="TRIANGLE",2*SQRT(B6/F5),"PROBLEME")</f>
-        <v>0.1</v>
+        <f>IF(F13="TRIANGLE",2*SQRT(B6/F5),2*F11+(B5-2*F12)/F4)</f>
+        <v>0.33</v>
       </c>
       <c r="G14" s="41" t="s">
         <v>20</v>
@@ -3106,7 +3124,7 @@
       </c>
       <c r="B15" s="44">
         <f>2*(B12+B13+B14)</f>
-        <v>1.6177444574328175</v>
+        <v>2.2277444574328173</v>
       </c>
       <c r="C15" s="30" t="s">
         <v>20</v>
@@ -3163,7 +3181,7 @@
       </c>
       <c r="F17" s="41">
         <f>IF(F16="TRIANGLE",2*SQRT(B5/F5),2*F11+(B5-2*F12)/F4)</f>
-        <v>0.255</v>
+        <v>0.33</v>
       </c>
       <c r="G17" s="41" t="s">
         <v>20</v>
@@ -3181,7 +3199,7 @@
       </c>
       <c r="B18" s="45">
         <f>B10+B9+B15</f>
-        <v>2.6177444574328175</v>
+        <v>3.2277444574328173</v>
       </c>
       <c r="C18" s="41" t="s">
         <v>20</v>
@@ -3205,7 +3223,7 @@
       </c>
       <c r="B19" s="46" t="str">
         <f>IF(B18&lt;B17,"OK","Pas bon")</f>
-        <v>OK</v>
+        <v>Pas bon</v>
       </c>
       <c r="C19" s="40" t="s">
         <v>99</v>
@@ -3573,13 +3591,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B6A03CE-B566-41C9-8838-E12FCE41EC10}">
   <dimension ref="A1:T95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="1" max="1" width="30.59765625" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3632,8 +3650,8 @@
         <v>135</v>
       </c>
       <c r="F2" s="47">
-        <f>B22*B18</f>
-        <v>44.145000000000003</v>
+        <f>B23*B19</f>
+        <v>26.487000000000002</v>
       </c>
       <c r="G2" s="39" t="s">
         <v>136</v>
@@ -3653,13 +3671,13 @@
       <c r="T2" s="36"/>
     </row>
     <row r="3" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="B3" s="39">
-        <v>0.77</v>
-      </c>
-      <c r="C3" s="39" t="s">
+      <c r="A3" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="71">
+        <v>1.95</v>
+      </c>
+      <c r="C3" s="71" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="36"/>
@@ -3667,8 +3685,8 @@
         <v>138</v>
       </c>
       <c r="F3" s="47">
-        <f>B18*B27</f>
-        <v>618.9682519120023</v>
+        <f>B19*B28</f>
+        <v>567.45375395269002</v>
       </c>
       <c r="G3" s="39" t="s">
         <v>136</v>
@@ -3689,13 +3707,13 @@
     </row>
     <row r="4" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B4" s="39">
-        <v>3</v>
+        <v>0.44</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="D4" s="36"/>
       <c r="E4" s="36"/>
@@ -3717,17 +3735,17 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B5" s="39">
-        <v>5.6</v>
+        <v>3</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>6</v>
+        <v>99</v>
       </c>
       <c r="D5" s="36"/>
       <c r="E5" s="39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F5" s="39">
         <v>750</v>
@@ -3750,18 +3768,19 @@
       <c r="T5" s="36"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
-        <v>142</v>
+      <c r="A6" s="72" t="s">
+        <v>150</v>
       </c>
       <c r="B6" s="39">
-        <v>3</v>
+        <f xml:space="preserve"> 5.6 +1.2</f>
+        <v>6.8</v>
       </c>
       <c r="C6" s="39" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="36"/>
       <c r="E6" s="39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F6" s="39">
         <v>840</v>
@@ -3785,11 +3804,10 @@
     </row>
     <row r="7" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="39" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B7" s="39">
-        <f>B6+B5+B4*B3</f>
-        <v>10.91</v>
+        <v>3</v>
       </c>
       <c r="C7" s="39" t="s">
         <v>6</v>
@@ -3813,12 +3831,19 @@
       <c r="T7" s="36"/>
     </row>
     <row r="8" spans="1:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
+      <c r="A8" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" s="39">
+        <f>B7+B6+B5*B4+B2+B3</f>
+        <v>16.670000000000002</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>6</v>
+      </c>
       <c r="D8" s="36"/>
       <c r="E8" s="40" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F8" s="40" t="str">
         <f>IF(F2&lt;F5,"OK","PROBLEME")</f>
@@ -3842,18 +3867,12 @@
       <c r="T8" s="36"/>
     </row>
     <row r="9" spans="1:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" s="39">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>12</v>
-      </c>
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
       <c r="D9" s="36"/>
       <c r="E9" s="40" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F9" s="40" t="str">
         <f>IF(F3&lt;F6,"OK","PROBLEME")</f>
@@ -3878,10 +3897,10 @@
     </row>
     <row r="10" spans="1:20" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B10" s="39">
-        <v>2.5000000000000001E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C10" s="39" t="s">
         <v>12</v>
@@ -3906,10 +3925,10 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B11" s="39">
-        <v>0.51500000000000001</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C11" s="39" t="s">
         <v>12</v>
@@ -3934,14 +3953,13 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="39" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="B12" s="39">
-        <f>'[1]Translation - Temps de cycle'!F3</f>
-        <v>10</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D12" s="36"/>
       <c r="E12" s="36"/>
@@ -3962,9 +3980,16 @@
       <c r="T12" s="36"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
+      <c r="A13" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="39">
+        <f>'[1]Translation - Temps de cycle'!F3</f>
+        <v>10</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>22</v>
+      </c>
       <c r="D13" s="36"/>
       <c r="E13" s="36"/>
       <c r="F13" s="36"/>
@@ -3983,17 +4008,10 @@
       <c r="S13" s="36"/>
       <c r="T13" s="36"/>
     </row>
-    <row r="14" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="B14" s="51">
-        <f>'[1]Translation - Temps de cycle'!B12</f>
-        <v>0.255</v>
-      </c>
-      <c r="C14" s="50" t="s">
-        <v>20</v>
-      </c>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
       <c r="D14" s="36"/>
       <c r="E14" s="36"/>
       <c r="F14" s="36"/>
@@ -4014,11 +4032,11 @@
     </row>
     <row r="15" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="B15" s="50">
-        <f>'[1]Translation - Temps de cycle'!B13</f>
-        <v>0.1</v>
+        <v>119</v>
+      </c>
+      <c r="B15" s="51">
+        <f>'[1]Translation - Temps de cycle'!B12</f>
+        <v>0.255</v>
       </c>
       <c r="C15" s="50" t="s">
         <v>20</v>
@@ -4043,11 +4061,11 @@
     </row>
     <row r="16" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="50" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B16" s="50">
-        <f>'[1]Translation - Temps de cycle'!B14</f>
-        <v>0.4538722287164087</v>
+        <f>'[1]Translation - Temps de cycle'!B13</f>
+        <v>0.1</v>
       </c>
       <c r="C16" s="50" t="s">
         <v>20</v>
@@ -4071,9 +4089,16 @@
       <c r="T16" s="36"/>
     </row>
     <row r="17" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="52"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
+      <c r="A17" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" s="50">
+        <f>'[1]Translation - Temps de cycle'!B14</f>
+        <v>0.4538722287164087</v>
+      </c>
+      <c r="C17" s="50" t="s">
+        <v>20</v>
+      </c>
       <c r="D17" s="36"/>
       <c r="E17" s="36"/>
       <c r="F17" s="36"/>
@@ -4093,15 +4118,9 @@
       <c r="T17" s="36"/>
     </row>
     <row r="18" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="53" t="s">
-        <v>147</v>
-      </c>
-      <c r="B18" s="53">
-        <v>5</v>
-      </c>
-      <c r="C18" s="53" t="s">
-        <v>99</v>
-      </c>
+      <c r="A18" s="52"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
       <c r="D18" s="36"/>
       <c r="E18" s="36"/>
       <c r="F18" s="36"/>
@@ -4120,10 +4139,16 @@
       <c r="S18" s="36"/>
       <c r="T18" s="36"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
+    <row r="19" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="B19" s="53">
+        <v>3</v>
+      </c>
+      <c r="C19" s="53" t="s">
+        <v>99</v>
+      </c>
       <c r="D19" s="36"/>
       <c r="E19" s="36"/>
       <c r="F19" s="36"/>
@@ -4142,12 +4167,10 @@
       <c r="S19" s="36"/>
       <c r="T19" s="36"/>
     </row>
-    <row r="20" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
       <c r="D20" s="36"/>
       <c r="E20" s="36"/>
       <c r="F20" s="36"/>
@@ -4167,16 +4190,11 @@
       <c r="T20" s="36"/>
     </row>
     <row r="21" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="30">
-        <f>B10*9.81*B2</f>
-        <v>0.88290000000000013</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>18</v>
-      </c>
+      <c r="A21" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
       <c r="D21" s="36"/>
       <c r="E21" s="36"/>
       <c r="F21" s="36"/>
@@ -4197,14 +4215,14 @@
     </row>
     <row r="22" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="30" t="s">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="B22" s="30">
-        <f>B21/B15</f>
-        <v>8.8290000000000006</v>
+        <f>B11*9.81*B2</f>
+        <v>0.88290000000000013</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>136</v>
+        <v>18</v>
       </c>
       <c r="D22" s="36"/>
       <c r="E22" s="36"/>
@@ -4224,10 +4242,17 @@
       <c r="S22" s="36"/>
       <c r="T22" s="36"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
+    <row r="23" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="B23" s="30">
+        <f>B22/B16</f>
+        <v>8.8290000000000006</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>136</v>
+      </c>
       <c r="D23" s="36"/>
       <c r="E23" s="36"/>
       <c r="F23" s="36"/>
@@ -4246,12 +4271,10 @@
       <c r="S23" s="36"/>
       <c r="T23" s="36"/>
     </row>
-    <row r="24" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
       <c r="D24" s="36"/>
       <c r="E24" s="36"/>
       <c r="F24" s="36"/>
@@ -4271,16 +4294,11 @@
       <c r="T24" s="36"/>
     </row>
     <row r="25" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="B25" s="30">
-        <f>B12*B7</f>
-        <v>109.1</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>24</v>
-      </c>
+      <c r="A25" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
       <c r="D25" s="36"/>
       <c r="E25" s="36"/>
       <c r="F25" s="36"/>
@@ -4301,14 +4319,14 @@
     </row>
     <row r="26" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="30" t="s">
-        <v>17</v>
+        <v>148</v>
       </c>
       <c r="B26" s="30">
-        <f>B11*B25</f>
-        <v>56.186499999999995</v>
+        <f>B13*B8</f>
+        <v>166.70000000000002</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D26" s="36"/>
       <c r="E26" s="36"/>
@@ -4330,14 +4348,14 @@
     </row>
     <row r="27" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="B27" s="30">
-        <f>B26/B16</f>
-        <v>123.79365038240046</v>
+        <f>B12*B26</f>
+        <v>85.850500000000011</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>136</v>
+        <v>18</v>
       </c>
       <c r="D27" s="36"/>
       <c r="E27" s="36"/>
@@ -4357,10 +4375,17 @@
       <c r="S27" s="36"/>
       <c r="T27" s="36"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
+    <row r="28" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="B28" s="30">
+        <f>B27/B17</f>
+        <v>189.15125131756335</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>136</v>
+      </c>
       <c r="D28" s="36"/>
       <c r="E28" s="36"/>
       <c r="F28" s="36"/>
